--- a/statistics_files/2024/2024.g.net_borrower_lender.xlsx
+++ b/statistics_files/2024/2024.g.net_borrower_lender.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\2024 files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6A5578-6011-4D5D-A34E-DA72AD00589D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D53920-2D86-4709-AB59-707E0597953A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly totals" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="108">
   <si>
     <t>NET</t>
   </si>
@@ -235,6 +235,147 @@
   </si>
   <si>
     <t>Winchester Public Library</t>
+  </si>
+  <si>
+    <t>We borrowerd more than we lent</t>
+  </si>
+  <si>
+    <t>1.04 : 1</t>
+  </si>
+  <si>
+    <t>1.33 : 1</t>
+  </si>
+  <si>
+    <t>We lent more than we borrowed</t>
+  </si>
+  <si>
+    <t>0.27 : 1</t>
+  </si>
+  <si>
+    <t>0.82 : 1</t>
+  </si>
+  <si>
+    <t>1.93 : 1</t>
+  </si>
+  <si>
+    <t>0.53 : 1</t>
+  </si>
+  <si>
+    <t>0.73 : 1</t>
+  </si>
+  <si>
+    <t>0.03 : 1</t>
+  </si>
+  <si>
+    <t>0.81 : 1</t>
+  </si>
+  <si>
+    <t>1.59 : 1</t>
+  </si>
+  <si>
+    <t>0.55 : 1</t>
+  </si>
+  <si>
+    <t>0.42 : 1</t>
+  </si>
+  <si>
+    <t>0.30 : 1</t>
+  </si>
+  <si>
+    <t>1.39 : 1</t>
+  </si>
+  <si>
+    <t>0.87 : 1</t>
+  </si>
+  <si>
+    <t>1.43 : 1</t>
+  </si>
+  <si>
+    <t>0.07 : 1</t>
+  </si>
+  <si>
+    <t>1.24 : 1</t>
+  </si>
+  <si>
+    <t>0.11 : 1</t>
+  </si>
+  <si>
+    <t>1.69 : 1</t>
+  </si>
+  <si>
+    <t>1.50 : 1</t>
+  </si>
+  <si>
+    <t>1.17 : 1</t>
+  </si>
+  <si>
+    <t>0.51 : 1</t>
+  </si>
+  <si>
+    <t>1.25 : 1</t>
+  </si>
+  <si>
+    <t>2.95 : 1</t>
+  </si>
+  <si>
+    <t>0.22 : 1</t>
+  </si>
+  <si>
+    <t>0.70 : 1</t>
+  </si>
+  <si>
+    <t>0.69 : 1</t>
+  </si>
+  <si>
+    <t>1.37 : 1</t>
+  </si>
+  <si>
+    <t>0.71 : 1</t>
+  </si>
+  <si>
+    <t>0.43 : 1</t>
+  </si>
+  <si>
+    <t>1.57 : 1</t>
+  </si>
+  <si>
+    <t>0.15 : 1</t>
+  </si>
+  <si>
+    <t>0.80 : 1</t>
+  </si>
+  <si>
+    <t>1.05 : 1</t>
+  </si>
+  <si>
+    <t>0.06 : 1</t>
+  </si>
+  <si>
+    <t>0.37 : 1</t>
+  </si>
+  <si>
+    <t>0.56 : 1</t>
+  </si>
+  <si>
+    <t>1.97 : 1</t>
+  </si>
+  <si>
+    <t>0.39 : 1</t>
+  </si>
+  <si>
+    <t>2.04 : 1</t>
+  </si>
+  <si>
+    <t>2.05 : 1</t>
+  </si>
+  <si>
+    <t>1.21 : 1</t>
+  </si>
+  <si>
+    <t>0.52 : 1</t>
+  </si>
+  <si>
+    <t>1.51 : 1</t>
   </si>
 </sst>
 </file>
@@ -1106,16 +1247,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -1138,268 +1279,268 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E2" s="28" t="str">
-        <f>IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" ref="E2:E33" si="0">IF(D2 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f t="shared" ref="F2:F33" si="1">IF(D2 &lt; 0, "We lent more than we borrowed this year", "")</f>
         <v/>
       </c>
-      <c r="F2" s="28" t="str">
-        <f>IF(D2 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G2" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G2:G33" si="2">IF(ISERROR(ROUND(B2/C2,2)&amp;" : 1"), "", ROUND(B2/C2,2)&amp;" : 1")</f>
+        <v>1.04 : 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="C3" s="4">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="D3" s="4">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E3" s="29" t="str">
-        <f>IF(D3 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F3" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F3" s="29" t="str">
-        <f>IF(D3 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G3" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B3/C3,2)&amp;" : 1"), "", ROUND(B3/C3,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.33 : 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E4" s="28" t="str">
-        <f>IF(D4 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F4" s="28" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F4" s="28" t="str">
-        <f>IF(D4 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G4" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B4/C4,2)&amp;" : 1"), "", ROUND(B4/C4,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.04 : 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="E5" s="29" t="str">
-        <f>IF(D5 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F5" s="29" t="str">
-        <f>IF(D5 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B5/C5,2)&amp;" : 1"), "", ROUND(B5/C5,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.27 : 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>0</v>
+        <v>1358</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>0</v>
+        <v>-249</v>
       </c>
       <c r="E6" s="28" t="str">
-        <f>IF(D6 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F6" s="28" t="str">
-        <f>IF(D6 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B6/C6,2)&amp;" : 1"), "", ROUND(B6/C6,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.82 : 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C7" s="4">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E7" s="29" t="str">
-        <f>IF(D7 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F7" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="29" t="str">
-        <f>IF(D7 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G7" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B7/C7,2)&amp;" : 1"), "", ROUND(B7/C7,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.93 : 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="E8" s="28" t="str">
-        <f>IF(D8 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F8" s="28" t="str">
-        <f>IF(D8 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B8/C8,2)&amp;" : 1"), "", ROUND(B8/C8,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.53 : 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E9" s="29" t="str">
-        <f>IF(D9 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F9" s="29" t="str">
-        <f>IF(D9 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B9/C9,2)&amp;" : 1"), "", ROUND(B9/C9,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.73 : 1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f>IF(D10 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F10" s="28" t="str">
-        <f>IF(D10 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B10/C10,2)&amp;" : 1"), "", ROUND(B10/C10,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.03 : 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1416,425 +1557,425 @@
         <v>0</v>
       </c>
       <c r="E11" s="29" t="str">
-        <f>IF(D11 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" s="29" t="str">
-        <f>IF(D11 &lt; 0, "We lent more than we borrowed this year", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B11/C11,2)&amp;" : 1"), "", ROUND(B11/C11,2)&amp;" : 1")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="6">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E12" s="30" t="str">
-        <f>IF(D12 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="30" t="str">
-        <f>IF(D12 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G12" s="7" t="str">
-        <f>IF(ISERROR(ROUND(B12/C12,2)&amp;" : 1"), "", ROUND(B12/C12,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.81 : 1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C13" s="6">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D13" s="6">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E13" s="30" t="str">
-        <f>IF(D13 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F13" s="30" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="30" t="str">
-        <f>IF(D13 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G13" s="7" t="str">
-        <f>IF(ISERROR(ROUND(B13/C13,2)&amp;" : 1"), "", ROUND(B13/C13,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.59 : 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C14" s="6">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D14" s="6">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="E14" s="30" t="str">
-        <f>IF(D14 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="30" t="str">
-        <f>IF(D14 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G14" s="7" t="str">
-        <f>IF(ISERROR(ROUND(B14/C14,2)&amp;" : 1"), "", ROUND(B14/C14,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.55 : 1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D15" s="6">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="E15" s="30" t="str">
-        <f>IF(D15 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F15" s="30" t="str">
-        <f>IF(D15 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G15" s="7" t="str">
-        <f>IF(ISERROR(ROUND(B15/C15,2)&amp;" : 1"), "", ROUND(B15/C15,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.42 : 1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>0</v>
+        <v>-114</v>
       </c>
       <c r="E16" s="28" t="str">
-        <f>IF(D16 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F16" s="28" t="str">
-        <f>IF(D16 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B16/C16,2)&amp;" : 1"), "", ROUND(B16/C16,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.3 : 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="C17" s="4">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="D17" s="4">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E17" s="29" t="str">
-        <f>IF(D17 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F17" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="29" t="str">
-        <f>IF(D17 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G17" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B17/C17,2)&amp;" : 1"), "", ROUND(B17/C17,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.39 : 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E18" s="28" t="str">
-        <f>IF(D18 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F18" s="28" t="str">
-        <f>IF(D18 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B18/C18,2)&amp;" : 1"), "", ROUND(B18/C18,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.87 : 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="C19" s="4">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D19" s="4">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E19" s="29" t="str">
-        <f>IF(D19 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F19" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="29" t="str">
-        <f>IF(D19 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G19" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B19/C19,2)&amp;" : 1"), "", ROUND(B19/C19,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.43 : 1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="E20" s="28" t="str">
-        <f>IF(D20 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F20" s="28" t="str">
-        <f>IF(D20 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B20/C20,2)&amp;" : 1"), "", ROUND(B20/C20,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.07 : 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="C21" s="4">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="D21" s="4">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E21" s="29" t="str">
-        <f>IF(D21 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F21" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F21" s="29" t="str">
-        <f>IF(D21 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G21" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B21/C21,2)&amp;" : 1"), "", ROUND(B21/C21,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.24 : 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="E22" s="28" t="str">
-        <f>IF(D22 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F22" s="28" t="str">
-        <f>IF(D22 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B22/C22,2)&amp;" : 1"), "", ROUND(B22/C22,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.11 : 1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="C23" s="4">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="D23" s="4">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="E23" s="29" t="str">
-        <f>IF(D23 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F23" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F23" s="29" t="str">
-        <f>IF(D23 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G23" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B23/C23,2)&amp;" : 1"), "", ROUND(B23/C23,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.69 : 1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>0</v>
+        <v>1721</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="E24" s="28" t="str">
-        <f>IF(D24 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F24" s="28" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F24" s="28" t="str">
-        <f>IF(D24 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G24" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B24/C24,2)&amp;" : 1"), "", ROUND(B24/C24,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.5 : 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C25" s="4">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="D25" s="4">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>0</v>
+        <v>-139</v>
       </c>
       <c r="E25" s="29" t="str">
-        <f>IF(D25 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F25" s="29" t="str">
-        <f>IF(D25 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G25" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B25/C25,2)&amp;" : 1"), "", ROUND(B25/C25,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.53 : 1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1851,512 +1992,512 @@
         <v>0</v>
       </c>
       <c r="E26" s="28" t="str">
-        <f>IF(D26 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F26" s="28" t="str">
-        <f>IF(D26 &lt; 0, "We lent more than we borrowed this year", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G26" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B26/C26,2)&amp;" : 1"), "", ROUND(B26/C26,2)&amp;" : 1")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="4">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C27" s="4">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D27" s="4">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E27" s="29" t="str">
-        <f>IF(D27 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F27" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F27" s="29" t="str">
-        <f>IF(D27 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G27" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B27/C27,2)&amp;" : 1"), "", ROUND(B27/C27,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.17 : 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="E28" s="28" t="str">
-        <f>IF(D28 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F28" s="28" t="str">
-        <f>IF(D28 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B28/C28,2)&amp;" : 1"), "", ROUND(B28/C28,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.51 : 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="4">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="C29" s="4">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="D29" s="4">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E29" s="29" t="str">
-        <f>IF(D29 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F29" s="29" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F29" s="29" t="str">
-        <f>IF(D29 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G29" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B29/C29,2)&amp;" : 1"), "", ROUND(B29/C29,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>1.25 : 1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E30" s="28" t="str">
-        <f>IF(D30 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F30" s="28" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F30" s="28" t="str">
-        <f>IF(D30 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G30" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B30/C30,2)&amp;" : 1"), "", ROUND(B30/C30,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2.95 : 1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="D31" s="4">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>0</v>
+        <v>-235</v>
       </c>
       <c r="E31" s="29" t="str">
-        <f>IF(D31 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F31" s="29" t="str">
-        <f>IF(D31 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G31" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B31/C31,2)&amp;" : 1"), "", ROUND(B31/C31,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.22 : 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>0</v>
+        <v>-152</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f>IF(D32 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F32" s="28" t="str">
-        <f>IF(D32 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B32/C32,2)&amp;" : 1"), "", ROUND(B32/C32,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.7 : 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="C33" s="4">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="D33" s="4">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>0</v>
+        <v>-149</v>
       </c>
       <c r="E33" s="29" t="str">
-        <f>IF(D33 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F33" s="29" t="str">
-        <f>IF(D33 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G33" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B33/C33,2)&amp;" : 1"), "", ROUND(B33/C33,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.69 : 1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f>IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" ref="E34:E65" si="3">IF(D34 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F34" s="28" t="str">
+        <f t="shared" ref="F34:F55" si="4">IF(D34 &lt; 0, "We lent more than we borrowed this year", "")</f>
         <v/>
       </c>
-      <c r="F34" s="28" t="str">
-        <f>IF(D34 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G34" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G34:G55" si="5">IF(ISERROR(ROUND(B34/C34,2)&amp;" : 1"), "", ROUND(B34/C34,2)&amp;" : 1")</f>
+        <v>1.37 : 1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="4">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="C35" s="4">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="D35" s="4">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>0</v>
+        <v>-324</v>
       </c>
       <c r="E35" s="29" t="str">
-        <f>IF(D35 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F35" s="29" t="str">
-        <f>IF(D35 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G35" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B35/C35,2)&amp;" : 1"), "", ROUND(B35/C35,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.71 : 1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>0</v>
+        <v>-234</v>
       </c>
       <c r="E36" s="28" t="str">
-        <f>IF(D36 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F36" s="28" t="str">
-        <f>IF(D36 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B36/C36,2)&amp;" : 1"), "", ROUND(B36/C36,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.43 : 1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="4">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C37" s="4">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D37" s="4">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="E37" s="29" t="str">
-        <f>IF(D37 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F37" s="29" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F37" s="29" t="str">
-        <f>IF(D37 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G37" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B37/C37,2)&amp;" : 1"), "", ROUND(B37/C37,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1.57 : 1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>0</v>
+        <v>-143</v>
       </c>
       <c r="E38" s="28" t="str">
-        <f>IF(D38 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F38" s="28" t="str">
-        <f>IF(D38 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G38" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B38/C38,2)&amp;" : 1"), "", ROUND(B38/C38,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.15 : 1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="4">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D39" s="4">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E39" s="29" t="str">
-        <f>IF(D39 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F39" s="29" t="str">
-        <f>IF(D39 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B39/C39,2)&amp;" : 1"), "", ROUND(B39/C39,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.8 : 1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="8">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D40" s="8">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E40" s="31" t="str">
-        <f>IF(D40 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F40" s="31" t="str">
-        <f>IF(D40 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f>IF(ISERROR(ROUND(B40/C40,2)&amp;" : 1"), "", ROUND(B40/C40,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.8 : 1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="8">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C41" s="8">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D41" s="8">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="31" t="str">
-        <f>IF(D41 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F41" s="31" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F41" s="31" t="str">
-        <f>IF(D41 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G41" s="9" t="str">
-        <f>IF(ISERROR(ROUND(B41/C41,2)&amp;" : 1"), "", ROUND(B41/C41,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1.05 : 1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="8">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" s="8">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D42" s="8">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E42" s="31" t="str">
-        <f>IF(D42 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F42" s="31" t="str">
-        <f>IF(D42 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G42" s="9" t="str">
-        <f>IF(ISERROR(ROUND(B42/C42,2)&amp;" : 1"), "", ROUND(B42/C42,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.06 : 1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="8">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C43" s="8">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D43" s="8">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="E43" s="31" t="str">
-        <f>IF(D43 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F43" s="31" t="str">
-        <f>IF(D43 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G43" s="9" t="str">
-        <f>IF(ISERROR(ROUND(B43/C43,2)&amp;" : 1"), "", ROUND(B43/C43,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.37 : 1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>48</v>
       </c>
@@ -2373,335 +2514,335 @@
         <v>0</v>
       </c>
       <c r="E44" s="31" t="str">
-        <f>IF(D44 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F44" s="31" t="str">
-        <f>IF(D44 &lt; 0, "We lent more than we borrowed this year", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G44" s="9" t="str">
-        <f>IF(ISERROR(ROUND(B44/C44,2)&amp;" : 1"), "", ROUND(B44/C44,2)&amp;" : 1")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="2">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="E45" s="28" t="str">
-        <f>IF(D45 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F45" s="28" t="str">
-        <f>IF(D45 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B45/C45,2)&amp;" : 1"), "", ROUND(B45/C45,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.56 : 1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="4">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="C46" s="4">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="D46" s="4">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="E46" s="29" t="str">
-        <f>IF(D46 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F46" s="29" t="str">
-        <f>IF(D46 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G46" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B46/C46,2)&amp;" : 1"), "", ROUND(B46/C46,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.82 : 1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="2">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="C47" s="2">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="D47" s="2">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E47" s="28" t="str">
-        <f>IF(D47 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F47" s="28" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F47" s="28" t="str">
-        <f>IF(D47 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G47" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B47/C47,2)&amp;" : 1"), "", ROUND(B47/C47,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1.97 : 1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="4">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="C48" s="4">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="D48" s="4">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>0</v>
+        <v>-409</v>
       </c>
       <c r="E48" s="29" t="str">
-        <f>IF(D48 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F48" s="29" t="str">
-        <f>IF(D48 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G48" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B48/C48,2)&amp;" : 1"), "", ROUND(B48/C48,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.39 : 1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="2">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="C49" s="2">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D49" s="2">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="E49" s="28" t="str">
-        <f>IF(D49 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F49" s="28" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F49" s="28" t="str">
-        <f>IF(D49 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G49" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B49/C49,2)&amp;" : 1"), "", ROUND(B49/C49,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>2.04 : 1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="4">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="C50" s="4">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="D50" s="4">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="E50" s="29" t="str">
-        <f>IF(D50 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F50" s="29" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F50" s="29" t="str">
-        <f>IF(D50 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G50" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B50/C50,2)&amp;" : 1"), "", ROUND(B50/C50,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>2.05 : 1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="2">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D51" s="2">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E51" s="28" t="str">
-        <f>IF(D51 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F51" s="28" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F51" s="28" t="str">
-        <f>IF(D51 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G51" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B51/C51,2)&amp;" : 1"), "", ROUND(B51/C51,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>1.21 : 1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="4">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="C52" s="4">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="D52" s="4">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="E52" s="29" t="str">
-        <f>IF(D52 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F52" s="29" t="str">
-        <f>IF(D52 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G52" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B52/C52,2)&amp;" : 1"), "", ROUND(B52/C52,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.81 : 1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="2">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D53" s="2">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="E53" s="28" t="str">
-        <f>IF(D53 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F53" s="28" t="str">
-        <f>IF(D53 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f>IF(ISERROR(ROUND(B53/C53,2)&amp;" : 1"), "", ROUND(B53/C53,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.52 : 1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="4">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C54" s="4">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D54" s="4">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>0</v>
+        <v>-192</v>
       </c>
       <c r="E54" s="29" t="str">
-        <f>IF(D54 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F54" s="29" t="str">
-        <f>IF(D54 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>We lent more than we borrowed this year</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f>IF(ISERROR(ROUND(B54/C54,2)&amp;" : 1"), "", ROUND(B54/C54,2)&amp;" : 1")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.07 : 1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="10">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C55" s="10">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D55" s="10">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E55" s="32" t="str">
-        <f>IF(D55 &gt; 0, "We borrowed more than we lent this year", "")</f>
+        <f t="shared" si="3"/>
+        <v>We borrowed more than we lent this year</v>
+      </c>
+      <c r="F55" s="32" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F55" s="32" t="str">
-        <f>IF(D55 &lt; 0, "We lent more than we borrowed this year", "")</f>
-        <v/>
-      </c>
       <c r="G55" s="11" t="str">
-        <f>IF(ISERROR(ROUND(B55/C55,2)&amp;" : 1"), "", ROUND(B55/C55,2)&amp;" : 1")</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>1.51 : 1</v>
       </c>
     </row>
   </sheetData>
@@ -2733,17 +2874,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -2766,7 +2907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2777,7 +2918,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +2929,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2940,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -2810,7 +2951,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2821,7 +2962,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -2832,7 +2973,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2843,7 +2984,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -2854,7 +2995,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2865,7 +3006,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -2876,7 +3017,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -2887,7 +3028,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -2898,7 +3039,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -2909,7 +3050,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -2920,7 +3061,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2931,7 +3072,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -2942,7 +3083,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -2953,7 +3094,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -2964,7 +3105,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2975,7 +3116,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -2986,7 +3127,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2997,7 +3138,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -3008,7 +3149,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,7 +3160,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -3030,7 +3171,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3041,7 +3182,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -3052,7 +3193,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3063,7 +3204,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -3074,7 +3215,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3085,7 +3226,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -3096,7 +3237,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -3107,7 +3248,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -3118,7 +3259,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -3129,7 +3270,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -3140,7 +3281,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -3151,7 +3292,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -3162,7 +3303,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -3173,7 +3314,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -3184,7 +3325,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -3195,7 +3336,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -3206,7 +3347,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -3217,7 +3358,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -3228,7 +3369,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -3239,7 +3380,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -3250,7 +3391,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -3261,7 +3402,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3413,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -3283,7 +3424,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -3294,7 +3435,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -3305,7 +3446,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -3316,7 +3457,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -3327,7 +3468,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -3338,7 +3479,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -3349,7 +3490,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -3393,17 +3534,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -3426,7 +3567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3437,7 +3578,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3589,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3459,7 +3600,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -3470,7 +3611,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3481,7 +3622,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -3492,7 +3633,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -3503,7 +3644,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3655,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3525,7 +3666,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -3536,7 +3677,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -3547,7 +3688,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -3558,7 +3699,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -3569,7 +3710,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -3580,7 +3721,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3591,7 +3732,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -3602,7 +3743,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3613,7 +3754,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -3624,7 +3765,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -3635,7 +3776,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -3646,7 +3787,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3657,7 +3798,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -3668,7 +3809,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3679,7 +3820,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -3690,7 +3831,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3701,7 +3842,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -3712,7 +3853,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3723,7 +3864,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -3734,7 +3875,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3745,7 +3886,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -3756,7 +3897,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -3767,7 +3908,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -3778,7 +3919,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -3789,7 +3930,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -3800,7 +3941,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -3811,7 +3952,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -3822,7 +3963,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -3833,7 +3974,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -3844,7 +3985,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -3855,7 +3996,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -3866,7 +4007,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -3877,7 +4018,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -3888,7 +4029,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -3899,7 +4040,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -3910,7 +4051,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -3921,7 +4062,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -3932,7 +4073,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -3943,7 +4084,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -3954,7 +4095,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -3965,7 +4106,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -3976,7 +4117,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -3987,7 +4128,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -3998,7 +4139,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -4009,7 +4150,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -4051,17 +4192,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -4084,7 +4225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4095,7 +4236,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -4106,7 +4247,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4117,7 +4258,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -4128,7 +4269,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4139,7 +4280,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4150,7 +4291,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4161,7 +4302,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4172,7 +4313,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4183,7 +4324,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4194,7 +4335,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4346,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4216,7 +4357,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4227,7 +4368,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4238,7 +4379,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4249,7 +4390,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4260,7 +4401,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4271,7 +4412,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4282,7 +4423,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4293,7 +4434,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4304,7 +4445,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4315,7 +4456,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4326,7 +4467,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4337,7 +4478,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -4348,7 +4489,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -4359,7 +4500,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -4370,7 +4511,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4381,7 +4522,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -4392,7 +4533,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -4403,7 +4544,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -4414,7 +4555,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -4425,7 +4566,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -4436,7 +4577,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -4447,7 +4588,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -4458,7 +4599,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -4469,7 +4610,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -4480,7 +4621,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -4491,7 +4632,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -4502,7 +4643,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -4513,7 +4654,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -4524,7 +4665,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -4535,7 +4676,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -4546,7 +4687,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -4557,7 +4698,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -4568,7 +4709,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -4579,7 +4720,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -4590,7 +4731,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -4601,7 +4742,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -4612,7 +4753,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -4623,7 +4764,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -4634,7 +4775,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -4645,7 +4786,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -4656,7 +4797,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -4667,7 +4808,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -4711,17 +4852,17 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -4744,7 +4885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4755,7 +4896,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -4766,7 +4907,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4777,7 +4918,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -4788,7 +4929,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4799,7 +4940,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -4810,7 +4951,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4821,7 +4962,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -4832,7 +4973,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4843,7 +4984,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -4854,7 +4995,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +5006,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -4876,7 +5017,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -4887,7 +5028,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -4898,7 +5039,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4909,7 +5050,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -4920,7 +5061,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4931,7 +5072,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -4942,7 +5083,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4953,7 +5094,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -4964,7 +5105,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -4975,7 +5116,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -4986,7 +5127,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4997,7 +5138,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -5008,7 +5149,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -5019,7 +5160,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -5030,7 +5171,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -5041,7 +5182,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -5052,7 +5193,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -5063,7 +5204,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -5074,7 +5215,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -5085,7 +5226,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -5096,7 +5237,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -5107,7 +5248,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -5118,7 +5259,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -5129,7 +5270,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -5140,7 +5281,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -5151,7 +5292,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -5162,7 +5303,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -5173,7 +5314,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -5184,7 +5325,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -5195,7 +5336,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -5206,7 +5347,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -5217,7 +5358,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -5228,7 +5369,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -5239,7 +5380,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -5250,7 +5391,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -5261,7 +5402,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -5272,7 +5413,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5283,7 +5424,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -5294,7 +5435,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -5305,7 +5446,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -5316,7 +5457,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -5327,7 +5468,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -5372,17 +5513,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5405,599 +5546,1127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="18">
+        <v>1329</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1284</v>
+      </c>
+      <c r="D2" s="18">
+        <v>45</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="21">
+        <v>534</v>
+      </c>
+      <c r="C3" s="21">
+        <v>401</v>
+      </c>
+      <c r="D3" s="21">
+        <v>133</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="18">
+        <v>1209</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1168</v>
+      </c>
+      <c r="D4" s="18">
+        <v>41</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="21">
+        <v>35</v>
+      </c>
+      <c r="C5" s="21">
+        <v>130</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-95</v>
+      </c>
       <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18">
+        <v>1109</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1358</v>
+      </c>
+      <c r="D6" s="18">
+        <v>-249</v>
+      </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21">
+        <v>257</v>
+      </c>
+      <c r="C7" s="21">
+        <v>133</v>
+      </c>
+      <c r="D7" s="21">
+        <v>124</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="18">
+        <v>85</v>
+      </c>
+      <c r="C8" s="18">
+        <v>160</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-75</v>
+      </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="21">
+        <v>57</v>
+      </c>
+      <c r="C9" s="21">
+        <v>78</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-21</v>
+      </c>
       <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>35</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-34</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="23">
+        <v>21</v>
+      </c>
+      <c r="C12" s="23">
+        <v>26</v>
+      </c>
+      <c r="D12" s="23">
+        <v>-5</v>
+      </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="23">
+        <v>170</v>
+      </c>
+      <c r="C13" s="23">
+        <v>107</v>
+      </c>
+      <c r="D13" s="23">
+        <v>63</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="23">
+        <v>152</v>
+      </c>
+      <c r="C14" s="23">
+        <v>274</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-122</v>
+      </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="23">
+        <v>66</v>
+      </c>
+      <c r="C15" s="23">
+        <v>159</v>
+      </c>
+      <c r="D15" s="23">
+        <v>-93</v>
+      </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="B16" s="18">
+        <v>50</v>
+      </c>
+      <c r="C16" s="18">
+        <v>164</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-114</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="21">
+        <v>619</v>
+      </c>
+      <c r="C17" s="21">
+        <v>444</v>
+      </c>
+      <c r="D17" s="21">
+        <v>175</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="18">
+        <v>85</v>
+      </c>
+      <c r="C18" s="18">
+        <v>98</v>
+      </c>
+      <c r="D18" s="18">
+        <v>-13</v>
+      </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="21">
+        <v>615</v>
+      </c>
+      <c r="C19" s="21">
+        <v>429</v>
+      </c>
+      <c r="D19" s="21">
+        <v>186</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="29"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="18">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18">
+        <v>61</v>
+      </c>
+      <c r="D20" s="18">
+        <v>-57</v>
+      </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="21">
+        <v>423</v>
+      </c>
+      <c r="C21" s="21">
+        <v>340</v>
+      </c>
+      <c r="D21" s="21">
+        <v>83</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="18">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18">
+        <v>151</v>
+      </c>
+      <c r="D22" s="18">
+        <v>-135</v>
+      </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="21">
+        <v>619</v>
+      </c>
+      <c r="C23" s="21">
+        <v>366</v>
+      </c>
+      <c r="D23" s="21">
+        <v>253</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="18">
+        <v>1721</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1144</v>
+      </c>
+      <c r="D24" s="18">
+        <v>577</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21">
+        <v>158</v>
+      </c>
+      <c r="C25" s="21">
+        <v>297</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-139</v>
+      </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="21">
+        <v>255</v>
+      </c>
+      <c r="C27" s="21">
+        <v>218</v>
+      </c>
+      <c r="D27" s="21">
+        <v>37</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="29"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="18">
+        <v>58</v>
+      </c>
+      <c r="C28" s="18">
+        <v>113</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-55</v>
+      </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="21">
+        <v>528</v>
+      </c>
+      <c r="C29" s="21">
+        <v>422</v>
+      </c>
+      <c r="D29" s="21">
+        <v>106</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="18">
+        <v>65</v>
+      </c>
+      <c r="C30" s="18">
+        <v>22</v>
+      </c>
+      <c r="D30" s="18">
+        <v>43</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21">
+        <v>67</v>
+      </c>
+      <c r="C31" s="21">
+        <v>302</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-235</v>
+      </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="18">
+        <v>361</v>
+      </c>
+      <c r="C32" s="18">
+        <v>513</v>
+      </c>
+      <c r="D32" s="18">
+        <v>-152</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="21">
+        <v>336</v>
+      </c>
+      <c r="C33" s="21">
+        <v>485</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-149</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28"/>
+      <c r="B34" s="18">
+        <v>147</v>
+      </c>
+      <c r="C34" s="18">
+        <v>107</v>
+      </c>
+      <c r="D34" s="18">
+        <v>40</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="21">
+        <v>787</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1111</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-324</v>
+      </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="18">
+        <v>176</v>
+      </c>
+      <c r="C36" s="18">
+        <v>410</v>
+      </c>
+      <c r="D36" s="18">
+        <v>-234</v>
+      </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="29"/>
+      <c r="B37" s="21">
+        <v>450</v>
+      </c>
+      <c r="C37" s="21">
+        <v>286</v>
+      </c>
+      <c r="D37" s="21">
+        <v>164</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="18">
+        <v>25</v>
+      </c>
+      <c r="C38" s="18">
+        <v>168</v>
+      </c>
+      <c r="D38" s="18">
+        <v>-143</v>
+      </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="25">
+        <v>71</v>
+      </c>
+      <c r="C39" s="25">
+        <v>89</v>
+      </c>
+      <c r="D39" s="25">
+        <v>-18</v>
+      </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="31"/>
+      <c r="B40" s="25">
+        <v>101</v>
+      </c>
+      <c r="C40" s="25">
+        <v>96</v>
+      </c>
+      <c r="D40" s="25">
+        <v>5</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="31"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="25">
+        <v>2</v>
+      </c>
+      <c r="C41" s="25">
+        <v>32</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-30</v>
+      </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="25">
+        <v>10</v>
+      </c>
+      <c r="C42" s="25">
+        <v>27</v>
+      </c>
+      <c r="D42" s="25">
+        <v>-17</v>
+      </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="21">
+        <v>47</v>
+      </c>
+      <c r="C44" s="21">
+        <v>59</v>
+      </c>
+      <c r="D44" s="21">
+        <v>-12</v>
+      </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="18">
+        <v>71</v>
+      </c>
+      <c r="C45" s="18">
+        <v>126</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-55</v>
+      </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="21">
+        <v>515</v>
+      </c>
+      <c r="C46" s="21">
+        <v>628</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-113</v>
+      </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="18">
+        <v>1087</v>
+      </c>
+      <c r="C47" s="18">
+        <v>551</v>
+      </c>
+      <c r="D47" s="18">
+        <v>536</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="21">
+        <v>264</v>
+      </c>
+      <c r="C48" s="21">
+        <v>673</v>
+      </c>
+      <c r="D48" s="21">
+        <v>-409</v>
+      </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="18">
+        <v>513</v>
+      </c>
+      <c r="C49" s="18">
+        <v>251</v>
+      </c>
+      <c r="D49" s="18">
+        <v>262</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="21">
+        <v>906</v>
+      </c>
+      <c r="C50" s="21">
+        <v>441</v>
+      </c>
+      <c r="D50" s="21">
+        <v>465</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="29"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="18">
+        <v>187</v>
+      </c>
+      <c r="C51" s="18">
+        <v>154</v>
+      </c>
+      <c r="D51" s="18">
+        <v>33</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="21">
+        <v>322</v>
+      </c>
+      <c r="C52" s="21">
+        <v>399</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-77</v>
+      </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="B53" s="18">
+        <v>113</v>
+      </c>
+      <c r="C53" s="18">
+        <v>218</v>
+      </c>
+      <c r="D53" s="18">
+        <v>-105</v>
+      </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="21">
+        <v>15</v>
+      </c>
+      <c r="C54" s="21">
+        <v>207</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-192</v>
+      </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="27">
+        <v>300</v>
+      </c>
+      <c r="C55" s="27">
+        <v>199</v>
+      </c>
+      <c r="D55" s="27">
+        <v>101</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="32"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -6033,17 +6702,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -6066,7 +6735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6077,7 +6746,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -6088,7 +6757,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6099,7 +6768,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -6110,7 +6779,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6121,7 +6790,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -6132,7 +6801,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6143,7 +6812,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -6154,7 +6823,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6165,7 +6834,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -6176,7 +6845,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -6187,7 +6856,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -6198,7 +6867,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -6209,7 +6878,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -6220,7 +6889,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -6231,7 +6900,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -6242,7 +6911,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -6253,7 +6922,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -6264,7 +6933,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6275,7 +6944,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -6286,7 +6955,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -6297,7 +6966,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -6308,7 +6977,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -6319,7 +6988,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -6330,7 +6999,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -6341,7 +7010,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -6352,7 +7021,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -6363,7 +7032,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -6374,7 +7043,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -6385,7 +7054,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -6396,7 +7065,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -6407,7 +7076,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -6418,7 +7087,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -6429,7 +7098,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -6440,7 +7109,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -6451,7 +7120,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -6462,7 +7131,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -6473,7 +7142,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -6484,7 +7153,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -6495,7 +7164,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -6506,7 +7175,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -6517,7 +7186,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -6528,7 +7197,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -6539,7 +7208,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -6550,7 +7219,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -6561,7 +7230,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -6572,7 +7241,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -6583,7 +7252,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -6594,7 +7263,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -6605,7 +7274,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -6616,7 +7285,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -6627,7 +7296,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -6638,7 +7307,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -6649,7 +7318,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -6693,17 +7362,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -6726,7 +7395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6737,7 +7406,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -6748,7 +7417,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6759,7 +7428,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -6770,7 +7439,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6781,7 +7450,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -6792,7 +7461,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -6803,7 +7472,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -6814,7 +7483,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6825,7 +7494,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -6836,7 +7505,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -6847,7 +7516,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -6858,7 +7527,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -6869,7 +7538,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -6880,7 +7549,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -6891,7 +7560,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -6902,7 +7571,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -6913,7 +7582,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -6924,7 +7593,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6935,7 +7604,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -6946,7 +7615,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -6957,7 +7626,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -6968,7 +7637,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -6979,7 +7648,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -6990,7 +7659,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -7001,7 +7670,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -7012,7 +7681,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -7023,7 +7692,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -7034,7 +7703,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -7045,7 +7714,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -7056,7 +7725,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7067,7 +7736,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -7078,7 +7747,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -7089,7 +7758,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -7100,7 +7769,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -7111,7 +7780,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -7122,7 +7791,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -7133,7 +7802,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -7144,7 +7813,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -7155,7 +7824,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -7166,7 +7835,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -7177,7 +7846,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -7188,7 +7857,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -7199,7 +7868,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -7210,7 +7879,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -7221,7 +7890,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -7232,7 +7901,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -7243,7 +7912,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -7254,7 +7923,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -7265,7 +7934,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -7276,7 +7945,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -7287,7 +7956,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -7298,7 +7967,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -7309,7 +7978,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -7354,17 +8023,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -7387,7 +8056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -7398,7 +8067,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -7409,7 +8078,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -7420,7 +8089,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -7431,7 +8100,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -7442,7 +8111,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -7453,7 +8122,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -7464,7 +8133,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -7475,7 +8144,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -7486,7 +8155,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -7497,7 +8166,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -7508,7 +8177,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -7519,7 +8188,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -7530,7 +8199,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -7541,7 +8210,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -7552,7 +8221,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -7563,7 +8232,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -7574,7 +8243,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -7585,7 +8254,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -7596,7 +8265,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -7607,7 +8276,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -7618,7 +8287,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -7629,7 +8298,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -7640,7 +8309,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -7651,7 +8320,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -7662,7 +8331,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -7673,7 +8342,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -7684,7 +8353,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -7695,7 +8364,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -7706,7 +8375,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -7717,7 +8386,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7728,7 +8397,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -7739,7 +8408,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -7750,7 +8419,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -7761,7 +8430,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -7772,7 +8441,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -7783,7 +8452,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -7794,7 +8463,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -7805,7 +8474,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -7816,7 +8485,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -7827,7 +8496,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -7838,7 +8507,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -7849,7 +8518,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -7860,7 +8529,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -7871,7 +8540,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -7882,7 +8551,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -7893,7 +8562,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -7904,7 +8573,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -7915,7 +8584,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -7926,7 +8595,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -7937,7 +8606,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -7948,7 +8617,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -7959,7 +8628,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -7970,7 +8639,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -8014,17 +8683,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -8047,7 +8716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -8058,7 +8727,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -8069,7 +8738,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -8080,7 +8749,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -8091,7 +8760,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -8102,7 +8771,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -8113,7 +8782,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -8124,7 +8793,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -8135,7 +8804,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8146,7 +8815,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -8157,7 +8826,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -8168,7 +8837,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -8179,7 +8848,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -8190,7 +8859,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -8201,7 +8870,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8212,7 +8881,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -8223,7 +8892,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -8234,7 +8903,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -8245,7 +8914,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -8256,7 +8925,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -8267,7 +8936,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -8278,7 +8947,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -8289,7 +8958,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -8300,7 +8969,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -8311,7 +8980,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -8322,7 +8991,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -8333,7 +9002,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -8344,7 +9013,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -8355,7 +9024,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -8366,7 +9035,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -8377,7 +9046,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -8388,7 +9057,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -8399,7 +9068,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -8410,7 +9079,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -8421,7 +9090,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -8432,7 +9101,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -8443,7 +9112,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -8454,7 +9123,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -8465,7 +9134,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -8476,7 +9145,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -8487,7 +9156,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -8498,7 +9167,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -8509,7 +9178,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -8520,7 +9189,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -8531,7 +9200,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -8542,7 +9211,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -8553,7 +9222,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -8564,7 +9233,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -8575,7 +9244,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -8586,7 +9255,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -8597,7 +9266,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -8608,7 +9277,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -8619,7 +9288,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -8630,7 +9299,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -8674,17 +9343,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -8707,7 +9376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -8718,7 +9387,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -8729,7 +9398,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -8740,7 +9409,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -8751,7 +9420,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -8762,7 +9431,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -8773,7 +9442,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -8784,7 +9453,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -8795,7 +9464,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -8806,7 +9475,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -8817,7 +9486,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -8828,7 +9497,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -8839,7 +9508,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -8850,7 +9519,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -8861,7 +9530,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8872,7 +9541,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -8883,7 +9552,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -8894,7 +9563,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -8905,7 +9574,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -8916,7 +9585,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -8927,7 +9596,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -8938,7 +9607,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -8949,7 +9618,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -8960,7 +9629,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -8971,7 +9640,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -8982,7 +9651,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -8993,7 +9662,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -9004,7 +9673,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -9015,7 +9684,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -9026,7 +9695,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -9037,7 +9706,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -9048,7 +9717,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -9059,7 +9728,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -9070,7 +9739,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -9081,7 +9750,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -9092,7 +9761,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -9103,7 +9772,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -9114,7 +9783,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -9125,7 +9794,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -9136,7 +9805,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -9147,7 +9816,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -9158,7 +9827,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -9169,7 +9838,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -9180,7 +9849,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9191,7 +9860,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -9202,7 +9871,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -9213,7 +9882,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -9224,7 +9893,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9235,7 +9904,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -9246,7 +9915,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -9257,7 +9926,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -9268,7 +9937,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -9279,7 +9948,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -9290,7 +9959,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -9334,17 +10003,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -9367,7 +10036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -9378,7 +10047,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -9389,7 +10058,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -9400,7 +10069,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -9411,7 +10080,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +10091,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -9433,7 +10102,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -9444,7 +10113,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -9455,7 +10124,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -9466,7 +10135,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -9477,7 +10146,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -9488,7 +10157,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -9499,7 +10168,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -9510,7 +10179,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -9521,7 +10190,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -9532,7 +10201,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -9543,7 +10212,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -9554,7 +10223,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -9565,7 +10234,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -9576,7 +10245,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -9587,7 +10256,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -9598,7 +10267,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -9609,7 +10278,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -9620,7 +10289,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -9631,7 +10300,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -9642,7 +10311,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -9653,7 +10322,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -9664,7 +10333,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -9675,7 +10344,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -9686,7 +10355,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -9697,7 +10366,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -9708,7 +10377,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -9719,7 +10388,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -9730,7 +10399,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -9741,7 +10410,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -9752,7 +10421,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -9763,7 +10432,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -9774,7 +10443,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -9785,7 +10454,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -9796,7 +10465,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -9807,7 +10476,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -9818,7 +10487,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -9829,7 +10498,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -9840,7 +10509,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9851,7 +10520,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -9862,7 +10531,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -9873,7 +10542,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -9884,7 +10553,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -9895,7 +10564,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -9906,7 +10575,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -9917,7 +10586,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -9928,7 +10597,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -9939,7 +10608,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -9950,7 +10619,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
@@ -9994,17 +10663,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="30.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.7265625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="45.7109375" style="19" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -10027,7 +10696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -10038,7 +10707,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -10049,7 +10718,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -10060,7 +10729,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -10071,7 +10740,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -10082,7 +10751,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -10093,7 +10762,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -10104,7 +10773,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -10115,7 +10784,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -10126,7 +10795,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -10137,7 +10806,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -10148,7 +10817,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
@@ -10159,7 +10828,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -10170,7 +10839,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
@@ -10181,7 +10850,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -10192,7 +10861,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
@@ -10203,7 +10872,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -10214,7 +10883,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
@@ -10225,7 +10894,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -10236,7 +10905,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
@@ -10247,7 +10916,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -10258,7 +10927,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
@@ -10269,7 +10938,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -10280,7 +10949,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>30</v>
       </c>
@@ -10291,7 +10960,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -10302,7 +10971,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
@@ -10313,7 +10982,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -10324,7 +10993,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
@@ -10335,7 +11004,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -10346,7 +11015,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>36</v>
       </c>
@@ -10357,7 +11026,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -10368,7 +11037,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
@@ -10379,7 +11048,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -10390,7 +11059,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -10401,7 +11070,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -10412,7 +11081,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
@@ -10423,7 +11092,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -10434,7 +11103,7 @@
       <c r="F38" s="28"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
@@ -10445,7 +11114,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>45</v>
       </c>
@@ -10456,7 +11125,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>46</v>
       </c>
@@ -10467,7 +11136,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
@@ -10478,7 +11147,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>48</v>
       </c>
@@ -10489,7 +11158,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>49</v>
       </c>
@@ -10500,7 +11169,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -10511,7 +11180,7 @@
       <c r="F45" s="28"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>51</v>
       </c>
@@ -10522,7 +11191,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -10533,7 +11202,7 @@
       <c r="F47" s="28"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>53</v>
       </c>
@@ -10544,7 +11213,7 @@
       <c r="F48" s="29"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -10555,7 +11224,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
@@ -10566,7 +11235,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10577,7 +11246,7 @@
       <c r="F51" s="28"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -10588,7 +11257,7 @@
       <c r="F52" s="29"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -10599,7 +11268,7 @@
       <c r="F53" s="28"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>59</v>
       </c>
@@ -10610,7 +11279,7 @@
       <c r="F54" s="29"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
